--- a/PCB/Production/PCB_POS.xlsx
+++ b/PCB/Production/PCB_POS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>PCB-bottom-pos</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>Bottom</t>
   </si>
   <si>
     <t>D8</t>
@@ -1403,7 +1409,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1566,29 +1572,29 @@
         <v>13</v>
       </c>
       <c r="B9" s="12">
-        <v>72</v>
+        <v>53.6</v>
       </c>
       <c r="C9" s="13">
-        <v>-29.75</v>
+        <v>-25.65</v>
       </c>
       <c r="D9" s="13">
         <v>180</v>
       </c>
       <c r="E9" t="s" s="14">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="12">
         <v>72</v>
       </c>
       <c r="C10" s="13">
-        <v>-46.75</v>
+        <v>-29.75</v>
       </c>
       <c r="D10" s="13">
         <v>180</v>
@@ -1601,13 +1607,13 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="12">
         <v>72</v>
       </c>
       <c r="C11" s="13">
-        <v>-63.75</v>
+        <v>-46.75</v>
       </c>
       <c r="D11" s="13">
         <v>180</v>
@@ -1620,13 +1626,13 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="12">
         <v>72</v>
       </c>
       <c r="C12" s="13">
-        <v>-80.75</v>
+        <v>-63.75</v>
       </c>
       <c r="D12" s="13">
         <v>180</v>
@@ -1639,13 +1645,13 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="12">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C13" s="13">
-        <v>-29.75</v>
+        <v>-80.75</v>
       </c>
       <c r="D13" s="13">
         <v>180</v>
@@ -1658,13 +1664,13 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="12">
         <v>90</v>
       </c>
       <c r="C14" s="13">
-        <v>-46.75</v>
+        <v>-29.75</v>
       </c>
       <c r="D14" s="13">
         <v>180</v>
@@ -1677,13 +1683,13 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="12">
         <v>90</v>
       </c>
       <c r="C15" s="13">
-        <v>-63.75</v>
+        <v>-46.75</v>
       </c>
       <c r="D15" s="13">
         <v>180</v>
@@ -1696,13 +1702,13 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="12">
         <v>90</v>
       </c>
       <c r="C16" s="13">
-        <v>-80.75</v>
+        <v>-63.75</v>
       </c>
       <c r="D16" s="13">
         <v>180</v>
@@ -1715,13 +1721,13 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="12">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C17" s="13">
-        <v>-29.75</v>
+        <v>-80.75</v>
       </c>
       <c r="D17" s="13">
         <v>180</v>
@@ -1734,13 +1740,13 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="12">
         <v>108</v>
       </c>
       <c r="C18" s="13">
-        <v>-46.75</v>
+        <v>-29.75</v>
       </c>
       <c r="D18" s="13">
         <v>180</v>
@@ -1753,13 +1759,13 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="12">
         <v>108</v>
       </c>
       <c r="C19" s="13">
-        <v>-63.75</v>
+        <v>-46.75</v>
       </c>
       <c r="D19" s="13">
         <v>180</v>
@@ -1772,13 +1778,13 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="12">
         <v>108</v>
       </c>
       <c r="C20" s="13">
-        <v>-80.75</v>
+        <v>-63.75</v>
       </c>
       <c r="D20" s="13">
         <v>180</v>
@@ -1788,6 +1794,25 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="11">
+        <v>26</v>
+      </c>
+      <c r="B21" s="12">
+        <v>108</v>
+      </c>
+      <c r="C21" s="13">
+        <v>-80.75</v>
+      </c>
+      <c r="D21" s="13">
+        <v>180</v>
+      </c>
+      <c r="E21" t="s" s="14">
+        <v>7</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
